--- a/Project Description/Gantt Chart.xlsx
+++ b/Project Description/Gantt Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F56F9B1-311B-4781-821C-554A9F8DB16C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4D4874-DE5C-4ABA-882F-3A5FAF5C6054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Duration (days)</t>
-  </si>
-  <si>
     <t>Groups info</t>
   </si>
   <si>
@@ -66,13 +63,16 @@
   <si>
     <t>Hand In</t>
   </si>
+  <si>
+    <t>WorkDays</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -114,7 +114,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -202,7 +202,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -222,7 +222,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$C$5:$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -257,36 +257,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$5:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43644</c:v>
+                  <c:v>43647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43647</c:v>
+                  <c:v>43648</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43650</c:v>
+                  <c:v>43651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43656</c:v>
+                  <c:v>43655</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43672</c:v>
+                  <c:v>43700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43685</c:v>
+                  <c:v>43684</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43690</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43693</c:v>
+                  <c:v>43692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -302,11 +302,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Duration (days)</c:v>
+                  <c:v>WorkDays</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -324,7 +324,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$C$5:$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -359,33 +359,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$D$5:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -448,7 +448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1291809952"/>
@@ -509,7 +509,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1354910496"/>
@@ -557,7 +557,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1106,16 +1106,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>155331</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1308272</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>9938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>468923</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
+      <xdr:colOff>309898</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1406,197 +1406,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A4:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.1015625" customWidth="1"/>
+    <col min="2" max="2" width="10.68359375" customWidth="1"/>
+    <col min="3" max="3" width="20.68359375" customWidth="1"/>
+    <col min="4" max="4" width="18.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4">
+        <v>43647</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43648</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>43644</v>
-      </c>
-      <c r="B2" s="4">
-        <v>43647</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4">
+        <v>43648</v>
+      </c>
+      <c r="B6" s="4">
+        <v>43651</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4">
+        <v>43651</v>
+      </c>
+      <c r="B7" s="4">
+        <v>43655</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>43647</v>
-      </c>
-      <c r="B3" s="4">
-        <v>43650</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>43650</v>
-      </c>
-      <c r="B4" s="4">
-        <v>43656</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
+        <v>43655</v>
+      </c>
+      <c r="B8" s="4">
+        <v>43662</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>43656</v>
-      </c>
-      <c r="B5" s="4">
-        <v>43662</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>43662</v>
-      </c>
-      <c r="B6" s="4">
-        <v>43672</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>43672</v>
-      </c>
-      <c r="B7" s="4">
-        <v>43685</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>43685</v>
-      </c>
-      <c r="B8" s="4">
-        <v>43690</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
+        <v>43662</v>
+      </c>
+      <c r="B9" s="4">
+        <v>43700</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4">
+        <v>43700</v>
+      </c>
+      <c r="B10" s="4">
+        <v>43684</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4">
+        <v>43684</v>
+      </c>
+      <c r="B11" s="4">
         <v>43690</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
+        <v>43690</v>
+      </c>
+      <c r="B12" s="4">
+        <v>43692</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4">
+        <v>43692</v>
+      </c>
+      <c r="B13" s="4">
         <v>43693</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5">
-        <v>3</v>
+      <c r="D13" s="5">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>43693</v>
-      </c>
-      <c r="B10" s="4">
-        <v>43693</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="5"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1606,6 +1606,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AA94F27E62D15A439422A56C78EE1482" ma:contentTypeVersion="7" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="710cc0c024e880702a673621fbc42eda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5237ef9d-88af-4c33-bb9f-21ba17c5c3b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="177b6cd5457460935e9e2df695df7850" ns2:_="">
     <xsd:import namespace="5237ef9d-88af-4c33-bb9f-21ba17c5c3b3"/>
@@ -1769,12 +1775,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1785,6 +1785,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{733C8CD2-1922-4F5C-9636-8200CA5A2530}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5237ef9d-88af-4c33-bb9f-21ba17c5c3b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3BA5C6-02E6-48A6-85A5-1CAF59507426}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1802,22 +1818,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{733C8CD2-1922-4F5C-9636-8200CA5A2530}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="5237ef9d-88af-4c33-bb9f-21ba17c5c3b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C1EFA21-C920-4C10-9F45-6AFE20978AE0}">
   <ds:schemaRefs>
